--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822200AB-98F8-4B49-8891-95408C9AAFB6}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932CA497-DD9B-4F82-B3AA-45CA145BCDF3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -432,9 +432,6 @@
     <t>Настройки набора данных</t>
   </si>
   <si>
-    <t>Номер столбца в наборе данных</t>
-  </si>
-  <si>
     <t>Текущий набор данных</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>Доступно обновление! Скачайте обновлённую версию из</t>
+  </si>
+  <si>
+    <t>Номера столбцов в наборе данных</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1209,7 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1217,7 +1217,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
         <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,90 +1446,90 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
         <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
         <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
         <v>151</v>
-      </c>
-      <c r="B71" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
         <v>154</v>
-      </c>
-      <c r="B73" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" t="s">
         <v>158</v>
-      </c>
-      <c r="B75" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932CA497-DD9B-4F82-B3AA-45CA145BCDF3}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EF9D70-B55E-4D57-8FD9-DB90EE2ACFCD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -517,6 +517,72 @@
   </si>
   <si>
     <t>Номера столбцов в наборе данных</t>
+  </si>
+  <si>
+    <t>try_later</t>
+  </si>
+  <si>
+    <t>Попробуйте позже</t>
+  </si>
+  <si>
+    <t>sort_mode</t>
+  </si>
+  <si>
+    <t>Режим сортировки</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>Алфавит</t>
+  </si>
+  <si>
+    <t>regen_list</t>
+  </si>
+  <si>
+    <t>Перегенерировать список</t>
+  </si>
+  <si>
+    <t>auto_number_clusters</t>
+  </si>
+  <si>
+    <t>Автогенерация количества кластеров</t>
+  </si>
+  <si>
+    <t>number_of_clusters</t>
+  </si>
+  <si>
+    <t>Количество кластеров</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>Включено</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>Выключено</t>
+  </si>
+  <si>
+    <t>menu_settings_causal_rel_mode</t>
+  </si>
+  <si>
+    <t>Настройки режима "Причинно-следственная связь"</t>
+  </si>
+  <si>
+    <t>beta_mode</t>
+  </si>
+  <si>
+    <t>Бета-режим</t>
+  </si>
+  <si>
+    <t>incorrect_value_num_clusters</t>
+  </si>
+  <si>
+    <t>Некорректное значение количества кластеров</t>
   </si>
 </sst>
 </file>
@@ -880,15 +946,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
@@ -1532,6 +1598,94 @@
         <v>158</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EF9D70-B55E-4D57-8FD9-DB90EE2ACFCD}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C14376-A9CA-4B28-AD69-3DBCA249BDF9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>Некорректное значение количества кластеров</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Группа</t>
   </si>
 </sst>
 </file>
@@ -946,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
@@ -1686,6 +1692,14 @@
         <v>182</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariollex/PycharmProjects/causal-relationships-in-school/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C14376-A9CA-4B28-AD69-3DBCA249BDF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF600D8-EF69-3E44-8DE7-415956A61833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>Группа</t>
+  </si>
+  <si>
+    <t>download_and_install</t>
+  </si>
+  <si>
+    <t>Скачать и установить?</t>
   </si>
 </sst>
 </file>
@@ -952,20 +958,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -979,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -987,7 +993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -1692,12 +1698,20 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>183</v>
       </c>
       <c r="B87" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariollex/PycharmProjects/causal-relationships-in-school/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF600D8-EF69-3E44-8DE7-415956A61833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B39D5-2506-C54F-A0C5-5FF6A0122C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Обновления</t>
   </si>
   <si>
-    <t>Доступно обновление! Скачайте обновлённую версию из</t>
-  </si>
-  <si>
     <t>Номера столбцов в наборе данных</t>
   </si>
   <si>
@@ -595,13 +592,19 @@
   </si>
   <si>
     <t>Скачать и установить?</t>
+  </si>
+  <si>
+    <t>click_to_check_updates</t>
+  </si>
+  <si>
+    <t>Нажмите для проверки обновлений</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +619,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -639,11 +649,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -958,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1298,7 @@
         <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,7 +1610,7 @@
         <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,106 +1623,114 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
         <v>167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
         <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
         <v>171</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
         <v>173</v>
-      </c>
-      <c r="B82" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
         <v>175</v>
-      </c>
-      <c r="B83" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s">
         <v>177</v>
-      </c>
-      <c r="B84" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s">
         <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
         <v>181</v>
-      </c>
-      <c r="B86" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
         <v>183</v>
-      </c>
-      <c r="B87" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" t="s">
         <v>185</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
